--- a/sequences/03_retrieval_1.xlsx
+++ b/sequences/03_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1920,6 +1944,30 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2072,6 +2120,30 @@
       <c r="F8" t="s">
         <v>205</v>
       </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2224,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>205</v>
       </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2572,6 +2692,30 @@
       <c r="F21" t="s">
         <v>205</v>
       </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2680,6 +2824,30 @@
       <c r="F24" t="s">
         <v>205</v>
       </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2744,6 +2912,30 @@
       <c r="F26" t="s">
         <v>205</v>
       </c>
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2896,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3004,6 +3220,30 @@
       <c r="F33" t="s">
         <v>205</v>
       </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3112,6 +3352,30 @@
       <c r="F36" t="s">
         <v>205</v>
       </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N36" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3176,6 +3440,30 @@
       <c r="F38" t="s">
         <v>205</v>
       </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N38" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3284,6 +3572,30 @@
       <c r="F41" t="s">
         <v>205</v>
       </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I41" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" t="s">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3304,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3456,6 +3792,30 @@
       <c r="F46" t="s">
         <v>205</v>
       </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" t="s">
+        <v>205</v>
+      </c>
+      <c r="J46" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46" t="s">
+        <v>205</v>
+      </c>
+      <c r="L46" t="s">
+        <v>205</v>
+      </c>
+      <c r="M46" t="s">
+        <v>205</v>
+      </c>
+      <c r="N46" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3564,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3584,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3604,6 +4012,30 @@
       <c r="F51" t="s">
         <v>205</v>
       </c>
+      <c r="G51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" t="s">
+        <v>205</v>
+      </c>
+      <c r="M51" t="s">
+        <v>205</v>
+      </c>
+      <c r="N51" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3800,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3908,6 +4364,30 @@
       <c r="F59" t="s">
         <v>205</v>
       </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K59" t="s">
+        <v>205</v>
+      </c>
+      <c r="L59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>205</v>
       </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" t="s">
+        <v>205</v>
+      </c>
+      <c r="L63" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" t="s">
+        <v>205</v>
+      </c>
+      <c r="N63" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4080,6 +4584,30 @@
       <c r="F64" t="s">
         <v>205</v>
       </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" t="s">
+        <v>205</v>
+      </c>
+      <c r="L64" t="s">
+        <v>205</v>
+      </c>
+      <c r="M64" t="s">
+        <v>205</v>
+      </c>
+      <c r="N64" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4296,6 +4848,30 @@
       <c r="F70" t="s">
         <v>205</v>
       </c>
+      <c r="G70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" t="s">
+        <v>205</v>
+      </c>
+      <c r="I70" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" t="s">
+        <v>205</v>
+      </c>
+      <c r="K70" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" t="s">
+        <v>205</v>
+      </c>
+      <c r="M70" t="s">
+        <v>205</v>
+      </c>
+      <c r="N70" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4360,6 +4936,30 @@
       <c r="F72" t="s">
         <v>205</v>
       </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4424,6 +5024,30 @@
       <c r="F74" t="s">
         <v>205</v>
       </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" t="s">
+        <v>205</v>
+      </c>
+      <c r="M74" t="s">
+        <v>205</v>
+      </c>
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4532,6 +5156,30 @@
       <c r="F77" t="s">
         <v>205</v>
       </c>
+      <c r="G77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" t="s">
+        <v>205</v>
+      </c>
+      <c r="K77" t="s">
+        <v>205</v>
+      </c>
+      <c r="L77" t="s">
+        <v>205</v>
+      </c>
+      <c r="M77" t="s">
+        <v>205</v>
+      </c>
+      <c r="N77" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4552,6 +5200,30 @@
       <c r="F78" t="s">
         <v>205</v>
       </c>
+      <c r="G78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="N78" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4660,6 +5332,30 @@
       <c r="F81" t="s">
         <v>205</v>
       </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" t="s">
+        <v>205</v>
+      </c>
+      <c r="N81" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4812,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4964,6 +5684,30 @@
       <c r="F89" t="s">
         <v>205</v>
       </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+      <c r="H89" t="s">
+        <v>205</v>
+      </c>
+      <c r="I89" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" t="s">
+        <v>205</v>
+      </c>
+      <c r="L89" t="s">
+        <v>205</v>
+      </c>
+      <c r="M89" t="s">
+        <v>205</v>
+      </c>
+      <c r="N89" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5160,6 +5904,30 @@
       <c r="F94" t="s">
         <v>205</v>
       </c>
+      <c r="G94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" t="s">
+        <v>205</v>
+      </c>
+      <c r="I94" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" t="s">
+        <v>205</v>
+      </c>
+      <c r="K94" t="s">
+        <v>205</v>
+      </c>
+      <c r="L94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M94" t="s">
+        <v>205</v>
+      </c>
+      <c r="N94" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5356,6 +6124,30 @@
       <c r="F99" t="s">
         <v>205</v>
       </c>
+      <c r="G99" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" t="s">
+        <v>205</v>
+      </c>
+      <c r="I99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J99" t="s">
+        <v>205</v>
+      </c>
+      <c r="K99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L99" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" t="s">
+        <v>205</v>
+      </c>
+      <c r="N99" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5596,6 +6388,30 @@
       <c r="F105" t="s">
         <v>205</v>
       </c>
+      <c r="G105" t="s">
+        <v>205</v>
+      </c>
+      <c r="H105" t="s">
+        <v>205</v>
+      </c>
+      <c r="I105" t="s">
+        <v>205</v>
+      </c>
+      <c r="J105" t="s">
+        <v>205</v>
+      </c>
+      <c r="K105" t="s">
+        <v>205</v>
+      </c>
+      <c r="L105" t="s">
+        <v>205</v>
+      </c>
+      <c r="M105" t="s">
+        <v>205</v>
+      </c>
+      <c r="N105" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5660,6 +6476,30 @@
       <c r="F107" t="s">
         <v>205</v>
       </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>205</v>
+      </c>
+      <c r="I107" t="s">
+        <v>205</v>
+      </c>
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="L107" t="s">
+        <v>205</v>
+      </c>
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5724,6 +6564,30 @@
       <c r="F109" t="s">
         <v>205</v>
       </c>
+      <c r="G109" t="s">
+        <v>205</v>
+      </c>
+      <c r="H109" t="s">
+        <v>205</v>
+      </c>
+      <c r="I109" t="s">
+        <v>205</v>
+      </c>
+      <c r="J109" t="s">
+        <v>205</v>
+      </c>
+      <c r="K109" t="s">
+        <v>205</v>
+      </c>
+      <c r="L109" t="s">
+        <v>205</v>
+      </c>
+      <c r="M109" t="s">
+        <v>205</v>
+      </c>
+      <c r="N109" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5788,6 +6652,30 @@
       <c r="F111" t="s">
         <v>205</v>
       </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>205</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="K111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5984,6 +6872,30 @@
       <c r="F116" t="s">
         <v>205</v>
       </c>
+      <c r="G116" t="s">
+        <v>205</v>
+      </c>
+      <c r="H116" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" t="s">
+        <v>205</v>
+      </c>
+      <c r="K116" t="s">
+        <v>205</v>
+      </c>
+      <c r="L116" t="s">
+        <v>205</v>
+      </c>
+      <c r="M116" t="s">
+        <v>205</v>
+      </c>
+      <c r="N116" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6048,6 +6960,30 @@
       <c r="F118" t="s">
         <v>205</v>
       </c>
+      <c r="G118" t="s">
+        <v>205</v>
+      </c>
+      <c r="H118" t="s">
+        <v>205</v>
+      </c>
+      <c r="I118" t="s">
+        <v>205</v>
+      </c>
+      <c r="J118" t="s">
+        <v>205</v>
+      </c>
+      <c r="K118" t="s">
+        <v>205</v>
+      </c>
+      <c r="L118" t="s">
+        <v>205</v>
+      </c>
+      <c r="M118" t="s">
+        <v>205</v>
+      </c>
+      <c r="N118" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6156,6 +7092,30 @@
       <c r="F121" t="s">
         <v>205</v>
       </c>
+      <c r="G121" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121" t="s">
+        <v>205</v>
+      </c>
+      <c r="I121" t="s">
+        <v>205</v>
+      </c>
+      <c r="J121" t="s">
+        <v>205</v>
+      </c>
+      <c r="K121" t="s">
+        <v>205</v>
+      </c>
+      <c r="L121" t="s">
+        <v>205</v>
+      </c>
+      <c r="M121" t="s">
+        <v>205</v>
+      </c>
+      <c r="N121" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>205</v>
       </c>
+      <c r="G124" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" t="s">
+        <v>205</v>
+      </c>
+      <c r="I124" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" t="s">
+        <v>205</v>
+      </c>
+      <c r="K124" t="s">
+        <v>205</v>
+      </c>
+      <c r="L124" t="s">
+        <v>205</v>
+      </c>
+      <c r="M124" t="s">
+        <v>205</v>
+      </c>
+      <c r="N124" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6328,6 +7312,30 @@
       <c r="F126" t="s">
         <v>205</v>
       </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
+        <v>205</v>
+      </c>
+      <c r="I126" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126" t="s">
+        <v>205</v>
+      </c>
+      <c r="N126" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6436,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6500,6 +7532,30 @@
       <c r="F131" t="s">
         <v>205</v>
       </c>
+      <c r="G131" t="s">
+        <v>205</v>
+      </c>
+      <c r="H131" t="s">
+        <v>205</v>
+      </c>
+      <c r="I131" t="s">
+        <v>205</v>
+      </c>
+      <c r="J131" t="s">
+        <v>205</v>
+      </c>
+      <c r="K131" t="s">
+        <v>205</v>
+      </c>
+      <c r="L131" t="s">
+        <v>205</v>
+      </c>
+      <c r="M131" t="s">
+        <v>205</v>
+      </c>
+      <c r="N131" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6520,6 +7576,30 @@
       <c r="F132" t="s">
         <v>205</v>
       </c>
+      <c r="G132" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132" t="s">
+        <v>205</v>
+      </c>
+      <c r="I132" t="s">
+        <v>205</v>
+      </c>
+      <c r="J132" t="s">
+        <v>205</v>
+      </c>
+      <c r="K132" t="s">
+        <v>205</v>
+      </c>
+      <c r="L132" t="s">
+        <v>205</v>
+      </c>
+      <c r="M132" t="s">
+        <v>205</v>
+      </c>
+      <c r="N132" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6628,6 +7708,30 @@
       <c r="F135" t="s">
         <v>205</v>
       </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>205</v>
+      </c>
+      <c r="L135" t="s">
+        <v>205</v>
+      </c>
+      <c r="M135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N135" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6736,6 +7840,30 @@
       <c r="F138" t="s">
         <v>205</v>
       </c>
+      <c r="G138" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" t="s">
+        <v>205</v>
+      </c>
+      <c r="J138" t="s">
+        <v>205</v>
+      </c>
+      <c r="K138" t="s">
+        <v>205</v>
+      </c>
+      <c r="L138" t="s">
+        <v>205</v>
+      </c>
+      <c r="M138" t="s">
+        <v>205</v>
+      </c>
+      <c r="N138" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6756,6 +7884,30 @@
       <c r="F139" t="s">
         <v>205</v>
       </c>
+      <c r="G139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139" t="s">
+        <v>205</v>
+      </c>
+      <c r="I139" t="s">
+        <v>205</v>
+      </c>
+      <c r="J139" t="s">
+        <v>205</v>
+      </c>
+      <c r="K139" t="s">
+        <v>205</v>
+      </c>
+      <c r="L139" t="s">
+        <v>205</v>
+      </c>
+      <c r="M139" t="s">
+        <v>205</v>
+      </c>
+      <c r="N139" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6952,6 +8104,30 @@
       <c r="F144" t="s">
         <v>205</v>
       </c>
+      <c r="G144" t="s">
+        <v>205</v>
+      </c>
+      <c r="H144" t="s">
+        <v>205</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" t="s">
+        <v>205</v>
+      </c>
+      <c r="K144" t="s">
+        <v>205</v>
+      </c>
+      <c r="L144" t="s">
+        <v>205</v>
+      </c>
+      <c r="M144" t="s">
+        <v>205</v>
+      </c>
+      <c r="N144" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -6972,6 +8148,30 @@
       <c r="F145" t="s">
         <v>205</v>
       </c>
+      <c r="G145" t="s">
+        <v>205</v>
+      </c>
+      <c r="H145" t="s">
+        <v>205</v>
+      </c>
+      <c r="I145" t="s">
+        <v>205</v>
+      </c>
+      <c r="J145" t="s">
+        <v>205</v>
+      </c>
+      <c r="K145" t="s">
+        <v>205</v>
+      </c>
+      <c r="L145" t="s">
+        <v>205</v>
+      </c>
+      <c r="M145" t="s">
+        <v>205</v>
+      </c>
+      <c r="N145" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7080,6 +8280,30 @@
       <c r="F148" t="s">
         <v>205</v>
       </c>
+      <c r="G148" t="s">
+        <v>205</v>
+      </c>
+      <c r="H148" t="s">
+        <v>205</v>
+      </c>
+      <c r="I148" t="s">
+        <v>205</v>
+      </c>
+      <c r="J148" t="s">
+        <v>205</v>
+      </c>
+      <c r="K148" t="s">
+        <v>205</v>
+      </c>
+      <c r="L148" t="s">
+        <v>205</v>
+      </c>
+      <c r="M148" t="s">
+        <v>205</v>
+      </c>
+      <c r="N148" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
@@ -7232,6 +8456,30 @@
       <c r="F152" t="s">
         <v>205</v>
       </c>
+      <c r="G152" t="s">
+        <v>205</v>
+      </c>
+      <c r="H152" t="s">
+        <v>205</v>
+      </c>
+      <c r="I152" t="s">
+        <v>205</v>
+      </c>
+      <c r="J152" t="s">
+        <v>205</v>
+      </c>
+      <c r="K152" t="s">
+        <v>205</v>
+      </c>
+      <c r="L152" t="s">
+        <v>205</v>
+      </c>
+      <c r="M152" t="s">
+        <v>205</v>
+      </c>
+      <c r="N152" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7296,6 +8544,30 @@
       <c r="F154" t="s">
         <v>205</v>
       </c>
+      <c r="G154" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" t="s">
+        <v>205</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+      <c r="K154" t="s">
+        <v>205</v>
+      </c>
+      <c r="L154" t="s">
+        <v>205</v>
+      </c>
+      <c r="M154" t="s">
+        <v>205</v>
+      </c>
+      <c r="N154" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7492,6 +8764,30 @@
       <c r="F159" t="s">
         <v>205</v>
       </c>
+      <c r="G159" t="s">
+        <v>205</v>
+      </c>
+      <c r="H159" t="s">
+        <v>205</v>
+      </c>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+      <c r="K159" t="s">
+        <v>205</v>
+      </c>
+      <c r="L159" t="s">
+        <v>205</v>
+      </c>
+      <c r="M159" t="s">
+        <v>205</v>
+      </c>
+      <c r="N159" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7556,6 +8852,30 @@
       <c r="F161" t="s">
         <v>205</v>
       </c>
+      <c r="G161" t="s">
+        <v>205</v>
+      </c>
+      <c r="H161" t="s">
+        <v>205</v>
+      </c>
+      <c r="I161" t="s">
+        <v>205</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+      <c r="K161" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" t="s">
+        <v>205</v>
+      </c>
+      <c r="M161" t="s">
+        <v>205</v>
+      </c>
+      <c r="N161" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7840,6 +9160,30 @@
       <c r="F168" t="s">
         <v>205</v>
       </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
+      <c r="H168" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+      <c r="K168" t="s">
+        <v>205</v>
+      </c>
+      <c r="L168" t="s">
+        <v>205</v>
+      </c>
+      <c r="M168" t="s">
+        <v>205</v>
+      </c>
+      <c r="N168" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7860,6 +9204,30 @@
       <c r="F169" t="s">
         <v>205</v>
       </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+      <c r="H169" t="s">
+        <v>205</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+      <c r="K169" t="s">
+        <v>205</v>
+      </c>
+      <c r="L169" t="s">
+        <v>205</v>
+      </c>
+      <c r="M169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -8100,6 +9468,30 @@
       <c r="F175" t="s">
         <v>205</v>
       </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
+      <c r="H175" t="s">
+        <v>205</v>
+      </c>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>205</v>
+      </c>
+      <c r="K175" t="s">
+        <v>205</v>
+      </c>
+      <c r="L175" t="s">
+        <v>205</v>
+      </c>
+      <c r="M175" t="s">
+        <v>205</v>
+      </c>
+      <c r="N175" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>205</v>
       </c>
+      <c r="G178" t="s">
+        <v>205</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="I178" t="s">
+        <v>205</v>
+      </c>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+      <c r="K178" t="s">
+        <v>205</v>
+      </c>
+      <c r="L178" t="s">
+        <v>205</v>
+      </c>
+      <c r="M178" t="s">
+        <v>205</v>
+      </c>
+      <c r="N178" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8360,6 +9776,30 @@
       <c r="F182" t="s">
         <v>205</v>
       </c>
+      <c r="G182" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" t="s">
+        <v>205</v>
+      </c>
+      <c r="I182" t="s">
+        <v>205</v>
+      </c>
+      <c r="J182" t="s">
+        <v>205</v>
+      </c>
+      <c r="K182" t="s">
+        <v>205</v>
+      </c>
+      <c r="L182" t="s">
+        <v>205</v>
+      </c>
+      <c r="M182" t="s">
+        <v>205</v>
+      </c>
+      <c r="N182" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8424,6 +9864,30 @@
       <c r="F184" t="s">
         <v>205</v>
       </c>
+      <c r="G184" t="s">
+        <v>205</v>
+      </c>
+      <c r="H184" t="s">
+        <v>205</v>
+      </c>
+      <c r="I184" t="s">
+        <v>205</v>
+      </c>
+      <c r="J184" t="s">
+        <v>205</v>
+      </c>
+      <c r="K184" t="s">
+        <v>205</v>
+      </c>
+      <c r="L184" t="s">
+        <v>205</v>
+      </c>
+      <c r="M184" t="s">
+        <v>205</v>
+      </c>
+      <c r="N184" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8444,6 +9908,30 @@
       <c r="F185" t="s">
         <v>205</v>
       </c>
+      <c r="G185" t="s">
+        <v>205</v>
+      </c>
+      <c r="H185" t="s">
+        <v>205</v>
+      </c>
+      <c r="I185" t="s">
+        <v>205</v>
+      </c>
+      <c r="J185" t="s">
+        <v>205</v>
+      </c>
+      <c r="K185" t="s">
+        <v>205</v>
+      </c>
+      <c r="L185" t="s">
+        <v>205</v>
+      </c>
+      <c r="M185" t="s">
+        <v>205</v>
+      </c>
+      <c r="N185" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8552,6 +10040,30 @@
       <c r="F188" t="s">
         <v>205</v>
       </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" t="s">
+        <v>205</v>
+      </c>
+      <c r="I188" t="s">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>205</v>
+      </c>
+      <c r="K188" t="s">
+        <v>205</v>
+      </c>
+      <c r="L188" t="s">
+        <v>205</v>
+      </c>
+      <c r="M188" t="s">
+        <v>205</v>
+      </c>
+      <c r="N188" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8729,7 +10241,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>205</v>
+      </c>
+      <c r="G193" t="s">
+        <v>205</v>
+      </c>
+      <c r="H193" t="s">
+        <v>205</v>
+      </c>
+      <c r="I193" t="s">
+        <v>205</v>
+      </c>
+      <c r="J193" t="s">
+        <v>205</v>
+      </c>
+      <c r="K193" t="s">
+        <v>205</v>
+      </c>
+      <c r="L193" t="s">
+        <v>205</v>
+      </c>
+      <c r="M193" t="s">
+        <v>205</v>
+      </c>
+      <c r="N193" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/03_retrieval_1.xlsx
+++ b/sequences/03_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>knurren</t>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>nähen</t>
   </si>
   <si>
     <t>schenken</t>
   </si>
   <si>
-    <t>tanzen</t>
+    <t>wundern</t>
   </si>
   <si>
     <t>münzen</t>
   </si>
   <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>siegen</t>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>stillen</t>
   </si>
   <si>
     <t>gelten</t>
   </si>
   <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>heulen</t>
   </si>
   <si>
     <t>plaudern</t>
   </si>
   <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
+    <t>gründen</t>
   </si>
   <si>
     <t>rasen</t>
   </si>
   <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
     <t>formen</t>
   </si>
   <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>leisten</t>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>foltern</t>
   </si>
   <si>
     <t>N/A</t>

--- a/sequences/03_retrieval_1.xlsx
+++ b/sequences/03_retrieval_1.xlsx
@@ -73,1363 +73,1363 @@
     <t>iti</t>
   </si>
   <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>strecken</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>laden</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>haken</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>hexen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
     <t>reizen</t>
   </si>
   <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>füllen</t>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>gucken</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>platzen</t>
   </si>
   <si>
     <t>mühen</t>
   </si>
   <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>weichen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>strecken</t>
-  </si>
-  <si>
-    <t>fangen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>suchen</t>
   </si>
   <si>
     <t>regnen</t>
   </si>
   <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>lieben</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>pressen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>wellen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>fischen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>gucken</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>schlucken</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>trennen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>feuern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
   </si>
   <si>
     <t>flower/flower001.jpg</t>
   </si>
   <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
+    <t>flower/flower027.jpg</t>
   </si>
   <si>
     <t>flower/flower028.jpg</t>
   </si>
   <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
     <t>flower/flower033.jpg</t>
   </si>
   <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
   </si>
   <si>
     <t>face/face016.jpg</t>
   </si>
   <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
+    <t>dog/dog248.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower159.jpg</t>
+  </si>
+  <si>
+    <t>face/face225.jpg</t>
+  </si>
+  <si>
+    <t>house/house187.jpg</t>
+  </si>
+  <si>
+    <t>face/face150.jpg</t>
+  </si>
+  <si>
+    <t>face/face174.jpg</t>
+  </si>
+  <si>
+    <t>face/face243.jpg</t>
+  </si>
+  <si>
+    <t>house/house171.jpg</t>
+  </si>
+  <si>
+    <t>face/face149.jpg</t>
+  </si>
+  <si>
+    <t>face/face186.jpg</t>
+  </si>
+  <si>
+    <t>house/house101.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog231.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog196.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog213.jpg</t>
+  </si>
+  <si>
+    <t>face/face182.jpg</t>
+  </si>
+  <si>
+    <t>house/house214.jpg</t>
+  </si>
+  <si>
+    <t>house/house215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower176.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower136.jpg</t>
+  </si>
+  <si>
+    <t>face/face201.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog209.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog187.jpg</t>
+  </si>
+  <si>
+    <t>face/face214.jpg</t>
+  </si>
+  <si>
+    <t>house/house176.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower190.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower261.jpg</t>
+  </si>
+  <si>
+    <t>face/face124.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower099.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower212.jpg</t>
+  </si>
+  <si>
+    <t>face/face097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog130.jpg</t>
+  </si>
+  <si>
+    <t>face/face205.jpg</t>
+  </si>
+  <si>
+    <t>face/face148.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog105.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower189.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog202.jpg</t>
+  </si>
+  <si>
+    <t>house/house132.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog098.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog186.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog200.jpg</t>
+  </si>
+  <si>
+    <t>house/house249.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower228.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower133.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog111.jpg</t>
+  </si>
+  <si>
+    <t>house/house255.jpg</t>
+  </si>
+  <si>
+    <t>face/face101.jpg</t>
+  </si>
+  <si>
+    <t>face/face181.jpg</t>
+  </si>
+  <si>
+    <t>house/house105.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower181.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog235.jpg</t>
+  </si>
+  <si>
+    <t>house/house211.jpg</t>
+  </si>
+  <si>
+    <t>house/house131.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower180.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog191.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower178.jpg</t>
+  </si>
+  <si>
+    <t>face/face208.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower139.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower155.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog151.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog101.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog249.jpg</t>
+  </si>
+  <si>
+    <t>face/face213.jpg</t>
+  </si>
+  <si>
+    <t>face/face158.jpg</t>
+  </si>
+  <si>
+    <t>face/face162.jpg</t>
+  </si>
+  <si>
+    <t>face/face203.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower144.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog106.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog167.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog245.jpg</t>
+  </si>
+  <si>
+    <t>face/face166.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower174.jpg</t>
+  </si>
+  <si>
+    <t>house/house157.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower224.jpg</t>
+  </si>
+  <si>
+    <t>face/face246.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower255.jpg</t>
+  </si>
+  <si>
+    <t>house/house194.jpg</t>
+  </si>
+  <si>
+    <t>house/house098.jpg</t>
+  </si>
+  <si>
+    <t>house/house122.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower115.jpg</t>
+  </si>
+  <si>
+    <t>face/face196.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower101.jpg</t>
+  </si>
+  <si>
+    <t>house/house222.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog114.jpg</t>
+  </si>
+  <si>
+    <t>house/house136.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog143.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower141.jpg</t>
+  </si>
+  <si>
+    <t>face/face145.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog107.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower167.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog159.jpg</t>
   </si>
   <si>
     <t>house/house116.jpg</t>
   </si>
   <si>
-    <t>face/face101.jpg</t>
-  </si>
-  <si>
-    <t>house/house101.jpg</t>
-  </si>
-  <si>
-    <t>face/face124.jpg</t>
-  </si>
-  <si>
-    <t>face/face243.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog235.jpg</t>
-  </si>
-  <si>
-    <t>face/face225.jpg</t>
-  </si>
-  <si>
-    <t>house/house214.jpg</t>
-  </si>
-  <si>
-    <t>house/house215.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower133.jpg</t>
+    <t>face/face207.jpg</t>
+  </si>
+  <si>
+    <t>house/house197.jpg</t>
+  </si>
+  <si>
+    <t>face/face143.jpg</t>
+  </si>
+  <si>
+    <t>face/face234.jpg</t>
+  </si>
+  <si>
+    <t>face/face216.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog108.jpg</t>
+  </si>
+  <si>
+    <t>house/house248.jpg</t>
   </si>
   <si>
     <t>house/house104.jpg</t>
   </si>
   <si>
-    <t>face/face181.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower180.jpg</t>
-  </si>
-  <si>
-    <t>face/face182.jpg</t>
+    <t>house/house134.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower256.jpg</t>
+  </si>
+  <si>
+    <t>face/face140.jpg</t>
+  </si>
+  <si>
+    <t>house/house181.jpg</t>
+  </si>
+  <si>
+    <t>house/house233.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower105.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog121.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog260.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower117.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower173.jpg</t>
+  </si>
+  <si>
+    <t>face/face212.jpg</t>
+  </si>
+  <si>
+    <t>house/house128.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower149.jpg</t>
+  </si>
+  <si>
+    <t>face/face229.jpg</t>
   </si>
   <si>
     <t>house/house149.jpg</t>
   </si>
   <si>
-    <t>flower/flower212.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog111.jpg</t>
-  </si>
-  <si>
-    <t>face/face143.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower261.jpg</t>
-  </si>
-  <si>
     <t>flower/flower232.jpg</t>
   </si>
   <si>
-    <t>dog/dog121.jpg</t>
-  </si>
-  <si>
-    <t>house/house098.jpg</t>
+    <t>flower/flower138.jpg</t>
+  </si>
+  <si>
+    <t>house/house102.jpg</t>
+  </si>
+  <si>
+    <t>house/house186.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog150.jpg</t>
+  </si>
+  <si>
+    <t>house/house166.jpg</t>
   </si>
   <si>
     <t>house/house124.jpg</t>
   </si>
   <si>
-    <t>flower/flower167.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog249.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower105.jpg</t>
-  </si>
-  <si>
-    <t>house/house131.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog159.jpg</t>
-  </si>
-  <si>
-    <t>house/house171.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower159.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog150.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog213.jpg</t>
-  </si>
-  <si>
-    <t>house/house128.jpg</t>
-  </si>
-  <si>
-    <t>house/house233.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower176.jpg</t>
-  </si>
-  <si>
-    <t>house/house255.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog209.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog151.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower149.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog143.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog200.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower189.jpg</t>
-  </si>
-  <si>
-    <t>face/face148.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog108.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower228.jpg</t>
+    <t>house/house152.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog168.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower227.jpg</t>
+  </si>
+  <si>
+    <t>face/face163.jpg</t>
   </si>
   <si>
     <t>dog/dog223.jpg</t>
   </si>
   <si>
-    <t>dog/dog196.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog248.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog114.jpg</t>
-  </si>
-  <si>
-    <t>face/face246.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog191.jpg</t>
-  </si>
-  <si>
-    <t>face/face216.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower101.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog130.jpg</t>
-  </si>
-  <si>
-    <t>face/face213.jpg</t>
-  </si>
-  <si>
-    <t>house/house105.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog231.jpg</t>
-  </si>
-  <si>
-    <t>house/house157.jpg</t>
-  </si>
-  <si>
-    <t>house/house132.jpg</t>
-  </si>
-  <si>
-    <t>house/house197.jpg</t>
-  </si>
-  <si>
-    <t>house/house134.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower181.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog101.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower113.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower138.jpg</t>
-  </si>
-  <si>
-    <t>house/house186.jpg</t>
-  </si>
-  <si>
-    <t>house/house122.jpg</t>
-  </si>
-  <si>
-    <t>face/face186.jpg</t>
-  </si>
-  <si>
-    <t>house/house248.jpg</t>
-  </si>
-  <si>
-    <t>face/face196.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog106.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog168.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog187.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower224.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower256.jpg</t>
-  </si>
-  <si>
     <t>dog/dog241.jpg</t>
-  </si>
-  <si>
-    <t>face/face208.jpg</t>
-  </si>
-  <si>
-    <t>house/house211.jpg</t>
-  </si>
-  <si>
-    <t>face/face163.jpg</t>
-  </si>
-  <si>
-    <t>face/face214.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower155.jpg</t>
-  </si>
-  <si>
-    <t>house/house166.jpg</t>
-  </si>
-  <si>
-    <t>face/face149.jpg</t>
-  </si>
-  <si>
-    <t>face/face212.jpg</t>
-  </si>
-  <si>
-    <t>face/face234.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower117.jpg</t>
-  </si>
-  <si>
-    <t>house/house152.jpg</t>
-  </si>
-  <si>
-    <t>house/house176.jpg</t>
-  </si>
-  <si>
-    <t>face/face174.jpg</t>
-  </si>
-  <si>
-    <t>face/face229.jpg</t>
-  </si>
-  <si>
-    <t>house/house194.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog107.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower255.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower174.jpg</t>
-  </si>
-  <si>
-    <t>face/face201.jpg</t>
-  </si>
-  <si>
-    <t>house/house187.jpg</t>
-  </si>
-  <si>
-    <t>house/house222.jpg</t>
-  </si>
-  <si>
-    <t>face/face166.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog245.jpg</t>
-  </si>
-  <si>
-    <t>face/face145.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower144.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower099.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower141.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog098.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog105.jpg</t>
-  </si>
-  <si>
-    <t>face/face097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower178.jpg</t>
-  </si>
-  <si>
-    <t>face/face158.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower136.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower173.jpg</t>
-  </si>
-  <si>
-    <t>face/face150.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower115.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog167.jpg</t>
-  </si>
-  <si>
-    <t>house/house249.jpg</t>
-  </si>
-  <si>
-    <t>face/face205.jpg</t>
-  </si>
-  <si>
-    <t>face/face162.jpg</t>
-  </si>
-  <si>
-    <t>house/house136.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower139.jpg</t>
-  </si>
-  <si>
-    <t>face/face207.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower190.jpg</t>
-  </si>
-  <si>
-    <t>face/face203.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog202.jpg</t>
-  </si>
-  <si>
-    <t>face/face140.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower227.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog186.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog260.jpg</t>
-  </si>
-  <si>
-    <t>house/house102.jpg</t>
-  </si>
-  <si>
-    <t>house/house181.jpg</t>
   </si>
   <si>
     <t>other/old/uncued</t>
@@ -1890,16 +1890,16 @@
         <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L2" t="s">
         <v>472</v>
@@ -1940,25 +1940,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="L3" t="s">
         <v>472</v>
@@ -1967,10 +1967,10 @@
         <v>212</v>
       </c>
       <c r="N3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P3" t="s">
         <v>474</v>
@@ -1993,7 +1993,7 @@
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
         <v>346</v>
@@ -2023,13 +2023,13 @@
         <v>473</v>
       </c>
       <c r="M4" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="N4" t="s">
         <v>474</v>
       </c>
       <c r="O4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="P4" t="s">
         <v>472</v>
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2182,19 +2182,19 @@
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
         <v>474</v>
@@ -2212,7 +2212,7 @@
         <v>475</v>
       </c>
       <c r="Q7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="R7" t="s">
         <v>472</v>
@@ -2229,7 +2229,7 @@
         <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="I8" t="s">
         <v>348</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L8" t="s">
         <v>472</v>
       </c>
       <c r="M8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="N8" t="s">
         <v>474</v>
@@ -2288,31 +2288,31 @@
         <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
         <v>349</v>
       </c>
       <c r="J9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="L9" t="s">
         <v>472</v>
@@ -2327,10 +2327,10 @@
         <v>217</v>
       </c>
       <c r="P9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="R9" t="s">
         <v>474</v>
@@ -2406,7 +2406,7 @@
         <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="I11" t="s">
         <v>350</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K11" t="s">
         <v>218</v>
@@ -2436,7 +2436,7 @@
         <v>473</v>
       </c>
       <c r="M11" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="N11" t="s">
         <v>474</v>
@@ -2448,7 +2448,7 @@
         <v>475</v>
       </c>
       <c r="Q11" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="R11" t="s">
         <v>472</v>
@@ -2465,7 +2465,7 @@
         <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="I12" t="s">
         <v>351</v>
       </c>
       <c r="J12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K12" t="s">
         <v>219</v>
@@ -2495,13 +2495,13 @@
         <v>473</v>
       </c>
       <c r="M12" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="N12" t="s">
         <v>472</v>
       </c>
       <c r="O12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P12" t="s">
         <v>474</v>
@@ -2583,22 +2583,22 @@
         <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
         <v>352</v>
@@ -2607,13 +2607,13 @@
         <v>343</v>
       </c>
       <c r="K14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" t="s">
         <v>474</v>
       </c>
       <c r="M14" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="N14" t="s">
         <v>472</v>
@@ -2628,7 +2628,7 @@
         <v>220</v>
       </c>
       <c r="R14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S14">
         <v>1.051408127170327</v>
@@ -2701,28 +2701,28 @@
         <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I16" t="s">
         <v>353</v>
       </c>
       <c r="J16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K16" t="s">
         <v>353</v>
@@ -2734,16 +2734,16 @@
         <v>221</v>
       </c>
       <c r="N16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O16" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="P16" t="s">
         <v>474</v>
       </c>
       <c r="Q16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="R16" t="s">
         <v>472</v>
@@ -2760,28 +2760,28 @@
         <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K17" t="s">
         <v>354</v>
@@ -2790,13 +2790,13 @@
         <v>475</v>
       </c>
       <c r="M17" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="N17" t="s">
         <v>474</v>
       </c>
       <c r="O17" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="P17" t="s">
         <v>472</v>
@@ -2805,7 +2805,7 @@
         <v>222</v>
       </c>
       <c r="R17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S17">
         <v>1.300333466707384</v>
@@ -2819,7 +2819,7 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2831,10 +2831,10 @@
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
@@ -2849,13 +2849,13 @@
         <v>475</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N18" t="s">
         <v>472</v>
       </c>
       <c r="O18" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="P18" t="s">
         <v>474</v>
@@ -2878,7 +2878,7 @@
         <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
         <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K19" t="s">
         <v>356</v>
@@ -2908,13 +2908,13 @@
         <v>475</v>
       </c>
       <c r="M19" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="N19" t="s">
         <v>474</v>
       </c>
       <c r="O19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P19" t="s">
         <v>472</v>
@@ -2996,7 +2996,7 @@
         <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="I21" t="s">
         <v>357</v>
@@ -3032,13 +3032,13 @@
         <v>475</v>
       </c>
       <c r="O21" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="P21" t="s">
         <v>474</v>
       </c>
       <c r="Q21" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="R21" t="s">
         <v>472</v>
@@ -3067,10 +3067,10 @@
         <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="H22" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I22" t="s">
         <v>358</v>
@@ -3085,7 +3085,7 @@
         <v>475</v>
       </c>
       <c r="M22" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s">
         <v>474</v>
@@ -3097,7 +3097,7 @@
         <v>473</v>
       </c>
       <c r="Q22" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="R22" t="s">
         <v>472</v>
@@ -3173,7 +3173,7 @@
         <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="H24" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
         <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K24" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
         <v>474</v>
       </c>
       <c r="M24" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="N24" t="s">
         <v>472</v>
@@ -3244,10 +3244,10 @@
         <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="I25" t="s">
         <v>360</v>
@@ -3256,7 +3256,7 @@
         <v>341</v>
       </c>
       <c r="K25" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L25" t="s">
         <v>474</v>
@@ -3274,7 +3274,7 @@
         <v>473</v>
       </c>
       <c r="Q25" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="R25" t="s">
         <v>472</v>
@@ -3350,7 +3350,7 @@
         <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3362,19 +3362,19 @@
         <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
         <v>474</v>
@@ -3392,7 +3392,7 @@
         <v>473</v>
       </c>
       <c r="Q27" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="R27" t="s">
         <v>472</v>
@@ -3468,22 +3468,22 @@
         <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="I29" t="s">
         <v>362</v>
@@ -3492,7 +3492,7 @@
         <v>340</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
         <v>472</v>
@@ -3501,7 +3501,7 @@
         <v>230</v>
       </c>
       <c r="N29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O29" t="s">
         <v>362</v>
@@ -3510,7 +3510,7 @@
         <v>475</v>
       </c>
       <c r="Q29" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="R29" t="s">
         <v>474</v>
@@ -3527,7 +3527,7 @@
         <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3539,19 +3539,19 @@
         <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="I30" t="s">
         <v>363</v>
       </c>
       <c r="J30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K30" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
         <v>472</v>
@@ -3563,7 +3563,7 @@
         <v>476</v>
       </c>
       <c r="O30" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="P30" t="s">
         <v>474</v>
@@ -3586,7 +3586,7 @@
         <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="I31" t="s">
         <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
         <v>364</v>
@@ -3622,13 +3622,13 @@
         <v>473</v>
       </c>
       <c r="O31" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s">
         <v>472</v>
       </c>
       <c r="Q31" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="R31" t="s">
         <v>474</v>
@@ -3645,7 +3645,7 @@
         <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3657,19 +3657,19 @@
         <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="I32" t="s">
         <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s">
         <v>472</v>
@@ -3687,7 +3687,7 @@
         <v>475</v>
       </c>
       <c r="Q32" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="R32" t="s">
         <v>474</v>
@@ -3710,16 +3710,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="H33" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="I33" t="s">
         <v>366</v>
@@ -3728,7 +3728,7 @@
         <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
         <v>474</v>
@@ -3740,7 +3740,7 @@
         <v>475</v>
       </c>
       <c r="O33" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s">
         <v>472</v>
@@ -3749,7 +3749,7 @@
         <v>234</v>
       </c>
       <c r="R33" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S33">
         <v>1.337916958825651</v>
@@ -3822,7 +3822,7 @@
         <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
         <v>308</v>
@@ -3843,10 +3843,10 @@
         <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
         <v>474</v>
@@ -3940,7 +3940,7 @@
         <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I37" t="s">
         <v>368</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
         <v>236</v>
@@ -3970,7 +3970,7 @@
         <v>476</v>
       </c>
       <c r="M37" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N37" t="s">
         <v>472</v>
@@ -3982,7 +3982,7 @@
         <v>475</v>
       </c>
       <c r="Q37" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="R37" t="s">
         <v>474</v>
@@ -3999,7 +3999,7 @@
         <v>237</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I38" t="s">
         <v>369</v>
@@ -4029,13 +4029,13 @@
         <v>476</v>
       </c>
       <c r="M38" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="N38" t="s">
         <v>474</v>
       </c>
       <c r="O38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P38" t="s">
         <v>472</v>
@@ -4058,22 +4058,22 @@
         <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>238</v>
       </c>
       <c r="G39" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="I39" t="s">
         <v>370</v>
@@ -4082,7 +4082,7 @@
         <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s">
         <v>472</v>
@@ -4091,10 +4091,10 @@
         <v>238</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O39" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="P39" t="s">
         <v>474</v>
@@ -4182,31 +4182,31 @@
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="I41" t="s">
         <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s">
         <v>474</v>
       </c>
       <c r="M41" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="N41" t="s">
         <v>472</v>
@@ -4221,7 +4221,7 @@
         <v>239</v>
       </c>
       <c r="R41" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S41">
         <v>1.082216416908884</v>
@@ -4294,7 +4294,7 @@
         <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
         <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
         <v>240</v>
@@ -4330,13 +4330,13 @@
         <v>475</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="P43" t="s">
         <v>472</v>
       </c>
       <c r="Q43" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="R43" t="s">
         <v>474</v>
@@ -4353,7 +4353,7 @@
         <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4365,19 +4365,19 @@
         <v>241</v>
       </c>
       <c r="G44" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H44" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
         <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s">
         <v>474</v>
@@ -4389,7 +4389,7 @@
         <v>475</v>
       </c>
       <c r="O44" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="P44" t="s">
         <v>472</v>
@@ -4412,7 +4412,7 @@
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4424,16 +4424,16 @@
         <v>242</v>
       </c>
       <c r="G45" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="I45" t="s">
         <v>374</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
         <v>242</v>
@@ -4442,13 +4442,13 @@
         <v>473</v>
       </c>
       <c r="M45" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s">
         <v>474</v>
       </c>
       <c r="O45" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s">
         <v>472</v>
@@ -4589,28 +4589,28 @@
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="H48" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="I48" t="s">
         <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K48" t="s">
         <v>375</v>
@@ -4622,16 +4622,16 @@
         <v>243</v>
       </c>
       <c r="N48" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O48" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="P48" t="s">
         <v>472</v>
       </c>
       <c r="Q48" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="R48" t="s">
         <v>474</v>
@@ -4707,7 +4707,7 @@
         <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4719,10 +4719,10 @@
         <v>244</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I50" t="s">
         <v>376</v>
@@ -4737,13 +4737,13 @@
         <v>475</v>
       </c>
       <c r="M50" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="N50" t="s">
         <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P50" t="s">
         <v>472</v>
@@ -4766,7 +4766,7 @@
         <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="H51" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="I51" t="s">
         <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s">
         <v>377</v>
@@ -4802,13 +4802,13 @@
         <v>473</v>
       </c>
       <c r="O51" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="P51" t="s">
         <v>472</v>
       </c>
       <c r="Q51" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="R51" t="s">
         <v>474</v>
@@ -4837,10 +4837,10 @@
         <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H52" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
         <v>378</v>
@@ -4861,13 +4861,13 @@
         <v>475</v>
       </c>
       <c r="O52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P52" t="s">
         <v>474</v>
       </c>
       <c r="Q52" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="R52" t="s">
         <v>472</v>
@@ -4884,7 +4884,7 @@
         <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4896,19 +4896,19 @@
         <v>247</v>
       </c>
       <c r="G53" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
         <v>379</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K53" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L53" t="s">
         <v>472</v>
@@ -4926,7 +4926,7 @@
         <v>473</v>
       </c>
       <c r="Q53" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="R53" t="s">
         <v>474</v>
@@ -5002,7 +5002,7 @@
         <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>248</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I55" t="s">
         <v>380</v>
@@ -5038,13 +5038,13 @@
         <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="P55" t="s">
         <v>474</v>
       </c>
       <c r="Q55" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="R55" t="s">
         <v>472</v>
@@ -5132,16 +5132,16 @@
         <v>249</v>
       </c>
       <c r="G57" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="H57" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I57" t="s">
         <v>381</v>
       </c>
       <c r="J57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K57" t="s">
         <v>381</v>
@@ -5150,13 +5150,13 @@
         <v>475</v>
       </c>
       <c r="M57" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s">
         <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P57" t="s">
         <v>472</v>
@@ -5179,31 +5179,31 @@
         <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
         <v>250</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="I58" t="s">
         <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="L58" t="s">
         <v>472</v>
@@ -5218,10 +5218,10 @@
         <v>250</v>
       </c>
       <c r="P58" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q58" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="R58" t="s">
         <v>474</v>
@@ -5238,7 +5238,7 @@
         <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -5250,19 +5250,19 @@
         <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I59" t="s">
         <v>383</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K59" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s">
         <v>474</v>
@@ -5280,7 +5280,7 @@
         <v>475</v>
       </c>
       <c r="Q59" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="R59" t="s">
         <v>472</v>
@@ -5362,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="H61" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I61" t="s">
         <v>384</v>
@@ -5383,7 +5383,7 @@
         <v>252</v>
       </c>
       <c r="L61" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M61" t="s">
         <v>384</v>
@@ -5392,13 +5392,13 @@
         <v>475</v>
       </c>
       <c r="O61" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="P61" t="s">
         <v>474</v>
       </c>
       <c r="Q61" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="R61" t="s">
         <v>472</v>
@@ -5533,22 +5533,22 @@
         <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>253</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I64" t="s">
         <v>385</v>
@@ -5557,7 +5557,7 @@
         <v>340</v>
       </c>
       <c r="K64" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="L64" t="s">
         <v>474</v>
@@ -5566,7 +5566,7 @@
         <v>253</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O64" t="s">
         <v>385</v>
@@ -5575,7 +5575,7 @@
         <v>475</v>
       </c>
       <c r="Q64" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="R64" t="s">
         <v>472</v>
@@ -5592,7 +5592,7 @@
         <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -5607,16 +5607,16 @@
         <v>329</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="I65" t="s">
         <v>386</v>
       </c>
       <c r="J65" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K65" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L65" t="s">
         <v>472</v>
@@ -5651,7 +5651,7 @@
         <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5663,25 +5663,25 @@
         <v>255</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="H66" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="I66" t="s">
         <v>387</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K66" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s">
         <v>472</v>
       </c>
       <c r="M66" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="N66" t="s">
         <v>474</v>
@@ -5710,7 +5710,7 @@
         <v>256</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5722,25 +5722,25 @@
         <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="H67" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="I67" t="s">
         <v>388</v>
       </c>
       <c r="J67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K67" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="L67" t="s">
         <v>472</v>
       </c>
       <c r="M67" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="N67" t="s">
         <v>474</v>
@@ -5769,7 +5769,7 @@
         <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5781,19 +5781,19 @@
         <v>257</v>
       </c>
       <c r="G68" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="I68" t="s">
         <v>389</v>
       </c>
       <c r="J68" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K68" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="L68" t="s">
         <v>472</v>
@@ -5805,7 +5805,7 @@
         <v>473</v>
       </c>
       <c r="O68" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="P68" t="s">
         <v>474</v>
@@ -5946,7 +5946,7 @@
         <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -5958,19 +5958,19 @@
         <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="I71" t="s">
         <v>390</v>
       </c>
       <c r="J71" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K71" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="L71" t="s">
         <v>474</v>
@@ -5988,7 +5988,7 @@
         <v>473</v>
       </c>
       <c r="Q71" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="R71" t="s">
         <v>472</v>
@@ -6005,7 +6005,7 @@
         <v>259</v>
       </c>
       <c r="C72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -6017,10 +6017,10 @@
         <v>259</v>
       </c>
       <c r="G72" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I72" t="s">
         <v>391</v>
@@ -6035,7 +6035,7 @@
         <v>475</v>
       </c>
       <c r="M72" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="N72" t="s">
         <v>474</v>
@@ -6047,7 +6047,7 @@
         <v>473</v>
       </c>
       <c r="Q72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R72" t="s">
         <v>472</v>
@@ -6064,7 +6064,7 @@
         <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -6076,19 +6076,19 @@
         <v>260</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="I73" t="s">
         <v>392</v>
       </c>
       <c r="J73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K73" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="L73" t="s">
         <v>472</v>
@@ -6106,7 +6106,7 @@
         <v>475</v>
       </c>
       <c r="Q73" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="R73" t="s">
         <v>474</v>
@@ -6129,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
         <v>261</v>
       </c>
       <c r="G74" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H74" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="I74" t="s">
         <v>393</v>
@@ -6147,7 +6147,7 @@
         <v>342</v>
       </c>
       <c r="K74" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s">
         <v>474</v>
@@ -6159,7 +6159,7 @@
         <v>475</v>
       </c>
       <c r="O74" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="P74" t="s">
         <v>472</v>
@@ -6168,7 +6168,7 @@
         <v>261</v>
       </c>
       <c r="R74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S74">
         <v>1.012543932649609</v>
@@ -6247,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>262</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="H76" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="I76" t="s">
         <v>394</v>
@@ -6268,7 +6268,7 @@
         <v>262</v>
       </c>
       <c r="L76" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M76" t="s">
         <v>394</v>
@@ -6277,13 +6277,13 @@
         <v>475</v>
       </c>
       <c r="O76" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="P76" t="s">
         <v>474</v>
       </c>
       <c r="Q76" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="R76" t="s">
         <v>472</v>
@@ -6312,19 +6312,19 @@
         <v>263</v>
       </c>
       <c r="G77" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="H77" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="I77" t="s">
         <v>395</v>
       </c>
       <c r="J77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K77" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="L77" t="s">
         <v>472</v>
@@ -6336,7 +6336,7 @@
         <v>473</v>
       </c>
       <c r="O77" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="P77" t="s">
         <v>474</v>
@@ -6359,7 +6359,7 @@
         <v>264</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6371,10 +6371,10 @@
         <v>264</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="I78" t="s">
         <v>396</v>
@@ -6389,7 +6389,7 @@
         <v>476</v>
       </c>
       <c r="M78" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="N78" t="s">
         <v>472</v>
@@ -6401,7 +6401,7 @@
         <v>475</v>
       </c>
       <c r="Q78" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="R78" t="s">
         <v>474</v>
@@ -6418,37 +6418,37 @@
         <v>265</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>265</v>
       </c>
       <c r="G79" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="I79" t="s">
         <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K79" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="L79" t="s">
         <v>474</v>
       </c>
       <c r="M79" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="N79" t="s">
         <v>472</v>
@@ -6457,7 +6457,7 @@
         <v>265</v>
       </c>
       <c r="P79" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q79" t="s">
         <v>397</v>
@@ -6477,34 +6477,34 @@
         <v>266</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>266</v>
       </c>
       <c r="G80" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="H80" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="I80" t="s">
         <v>398</v>
       </c>
       <c r="J80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K80" t="s">
         <v>266</v>
       </c>
       <c r="L80" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s">
         <v>398</v>
@@ -6513,13 +6513,13 @@
         <v>475</v>
       </c>
       <c r="O80" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="P80" t="s">
         <v>472</v>
       </c>
       <c r="Q80" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="R80" t="s">
         <v>474</v>
@@ -6536,7 +6536,7 @@
         <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6548,10 +6548,10 @@
         <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I81" t="s">
         <v>399</v>
@@ -6560,7 +6560,7 @@
         <v>343</v>
       </c>
       <c r="K81" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="L81" t="s">
         <v>474</v>
@@ -6578,7 +6578,7 @@
         <v>473</v>
       </c>
       <c r="Q81" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="R81" t="s">
         <v>472</v>
@@ -6713,31 +6713,31 @@
         <v>268</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>268</v>
       </c>
       <c r="G84" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I84" t="s">
         <v>400</v>
       </c>
       <c r="J84" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="L84" t="s">
         <v>474</v>
@@ -6749,7 +6749,7 @@
         <v>475</v>
       </c>
       <c r="O84" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P84" t="s">
         <v>472</v>
@@ -6758,7 +6758,7 @@
         <v>268</v>
       </c>
       <c r="R84" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S84">
         <v>1.065914483778516</v>
@@ -6784,16 +6784,16 @@
         <v>269</v>
       </c>
       <c r="G85" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H85" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="I85" t="s">
         <v>401</v>
       </c>
       <c r="J85" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K85" t="s">
         <v>401</v>
@@ -6802,13 +6802,13 @@
         <v>475</v>
       </c>
       <c r="M85" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="N85" t="s">
         <v>472</v>
       </c>
       <c r="O85" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P85" t="s">
         <v>474</v>
@@ -6890,7 +6890,7 @@
         <v>270</v>
       </c>
       <c r="C87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -6902,16 +6902,16 @@
         <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H87" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="I87" t="s">
         <v>402</v>
       </c>
       <c r="J87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K87" t="s">
         <v>270</v>
@@ -6920,7 +6920,7 @@
         <v>473</v>
       </c>
       <c r="M87" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N87" t="s">
         <v>474</v>
@@ -6932,7 +6932,7 @@
         <v>475</v>
       </c>
       <c r="Q87" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="R87" t="s">
         <v>472</v>
@@ -6949,28 +6949,28 @@
         <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>271</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="H88" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
         <v>403</v>
       </c>
       <c r="J88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K88" t="s">
         <v>403</v>
@@ -6979,13 +6979,13 @@
         <v>475</v>
       </c>
       <c r="M88" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="N88" t="s">
         <v>472</v>
       </c>
       <c r="O88" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="P88" t="s">
         <v>474</v>
@@ -6994,7 +6994,7 @@
         <v>271</v>
       </c>
       <c r="R88" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S88">
         <v>1.00167919047003</v>
@@ -7073,31 +7073,31 @@
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
         <v>272</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="I90" t="s">
         <v>404</v>
       </c>
       <c r="J90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K90" t="s">
         <v>272</v>
       </c>
       <c r="L90" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M90" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="N90" t="s">
         <v>474</v>
@@ -7109,7 +7109,7 @@
         <v>475</v>
       </c>
       <c r="Q90" t="s">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="R90" t="s">
         <v>472</v>
@@ -7126,7 +7126,7 @@
         <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -7138,16 +7138,16 @@
         <v>273</v>
       </c>
       <c r="G91" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="H91" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="I91" t="s">
         <v>405</v>
       </c>
       <c r="J91" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K91" t="s">
         <v>273</v>
@@ -7156,7 +7156,7 @@
         <v>473</v>
       </c>
       <c r="M91" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="N91" t="s">
         <v>474</v>
@@ -7168,7 +7168,7 @@
         <v>475</v>
       </c>
       <c r="Q91" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="R91" t="s">
         <v>472</v>
@@ -7185,37 +7185,37 @@
         <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>274</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H92" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I92" t="s">
         <v>406</v>
       </c>
       <c r="J92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K92" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L92" t="s">
         <v>472</v>
       </c>
       <c r="M92" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="N92" t="s">
         <v>474</v>
@@ -7224,7 +7224,7 @@
         <v>274</v>
       </c>
       <c r="P92" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q92" t="s">
         <v>406</v>
@@ -7244,31 +7244,31 @@
         <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>275</v>
       </c>
       <c r="G93" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="H93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I93" t="s">
         <v>407</v>
       </c>
       <c r="J93" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K93" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="L93" t="s">
         <v>474</v>
@@ -7280,7 +7280,7 @@
         <v>475</v>
       </c>
       <c r="O93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P93" t="s">
         <v>472</v>
@@ -7289,7 +7289,7 @@
         <v>275</v>
       </c>
       <c r="R93" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S93">
         <v>1.047041301321396</v>
@@ -7303,7 +7303,7 @@
         <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -7315,16 +7315,16 @@
         <v>276</v>
       </c>
       <c r="G94" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H94" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="I94" t="s">
         <v>408</v>
       </c>
       <c r="J94" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K94" t="s">
         <v>408</v>
@@ -7339,13 +7339,13 @@
         <v>473</v>
       </c>
       <c r="O94" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="P94" t="s">
         <v>472</v>
       </c>
       <c r="Q94" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="R94" t="s">
         <v>474</v>
@@ -7362,7 +7362,7 @@
         <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -7374,16 +7374,16 @@
         <v>277</v>
       </c>
       <c r="G95" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="I95" t="s">
         <v>409</v>
       </c>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K95" t="s">
         <v>409</v>
@@ -7398,13 +7398,13 @@
         <v>473</v>
       </c>
       <c r="O95" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="P95" t="s">
         <v>474</v>
       </c>
       <c r="Q95" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="R95" t="s">
         <v>472</v>
@@ -7551,19 +7551,19 @@
         <v>278</v>
       </c>
       <c r="G98" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H98" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="I98" t="s">
         <v>410</v>
       </c>
       <c r="J98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K98" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="L98" t="s">
         <v>472</v>
@@ -7581,7 +7581,7 @@
         <v>475</v>
       </c>
       <c r="Q98" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="R98" t="s">
         <v>474</v>
@@ -7663,16 +7663,16 @@
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
         <v>279</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="H100" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="I100" t="s">
         <v>411</v>
@@ -7681,7 +7681,7 @@
         <v>342</v>
       </c>
       <c r="K100" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="L100" t="s">
         <v>472</v>
@@ -7696,10 +7696,10 @@
         <v>279</v>
       </c>
       <c r="P100" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q100" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="R100" t="s">
         <v>474</v>
@@ -7716,7 +7716,7 @@
         <v>280</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -7728,19 +7728,19 @@
         <v>280</v>
       </c>
       <c r="G101" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="H101" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="I101" t="s">
         <v>412</v>
       </c>
       <c r="J101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K101" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L101" t="s">
         <v>472</v>
@@ -7752,7 +7752,7 @@
         <v>475</v>
       </c>
       <c r="O101" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="P101" t="s">
         <v>474</v>
@@ -7893,7 +7893,7 @@
         <v>281</v>
       </c>
       <c r="C104" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -7905,16 +7905,16 @@
         <v>281</v>
       </c>
       <c r="G104" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H104" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="I104" t="s">
         <v>413</v>
       </c>
       <c r="J104" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K104" t="s">
         <v>413</v>
@@ -7929,13 +7929,13 @@
         <v>473</v>
       </c>
       <c r="O104" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="P104" t="s">
         <v>474</v>
       </c>
       <c r="Q104" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="R104" t="s">
         <v>472</v>
@@ -8023,25 +8023,25 @@
         <v>282</v>
       </c>
       <c r="G106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H106" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I106" t="s">
         <v>414</v>
       </c>
       <c r="J106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L106" t="s">
         <v>474</v>
       </c>
       <c r="M106" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N106" t="s">
         <v>472</v>
@@ -8129,7 +8129,7 @@
         <v>283</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -8141,19 +8141,19 @@
         <v>283</v>
       </c>
       <c r="G108" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="H108" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I108" t="s">
         <v>415</v>
       </c>
       <c r="J108" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K108" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L108" t="s">
         <v>472</v>
@@ -8171,7 +8171,7 @@
         <v>473</v>
       </c>
       <c r="Q108" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="R108" t="s">
         <v>474</v>
@@ -8247,22 +8247,22 @@
         <v>284</v>
       </c>
       <c r="C110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>284</v>
       </c>
       <c r="G110" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="H110" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="I110" t="s">
         <v>416</v>
@@ -8271,13 +8271,13 @@
         <v>341</v>
       </c>
       <c r="K110" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="L110" t="s">
         <v>474</v>
       </c>
       <c r="M110" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="N110" t="s">
         <v>472</v>
@@ -8292,7 +8292,7 @@
         <v>284</v>
       </c>
       <c r="R110" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S110">
         <v>1.299866367942581</v>
@@ -8306,22 +8306,22 @@
         <v>285</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
         <v>285</v>
       </c>
       <c r="G111" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="H111" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="I111" t="s">
         <v>417</v>
@@ -8333,7 +8333,7 @@
         <v>285</v>
       </c>
       <c r="L111" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M111" t="s">
         <v>417</v>
@@ -8342,13 +8342,13 @@
         <v>475</v>
       </c>
       <c r="O111" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="P111" t="s">
         <v>472</v>
       </c>
       <c r="Q111" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="R111" t="s">
         <v>474</v>
@@ -8377,16 +8377,16 @@
         <v>286</v>
       </c>
       <c r="G112" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H112" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="I112" t="s">
         <v>418</v>
       </c>
       <c r="J112" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K112" t="s">
         <v>286</v>
@@ -8395,13 +8395,13 @@
         <v>473</v>
       </c>
       <c r="M112" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="N112" t="s">
         <v>472</v>
       </c>
       <c r="O112" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="P112" t="s">
         <v>474</v>
@@ -8542,7 +8542,7 @@
         <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -8554,19 +8554,19 @@
         <v>287</v>
       </c>
       <c r="G115" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H115" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="I115" t="s">
         <v>419</v>
       </c>
       <c r="J115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K115" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="L115" t="s">
         <v>472</v>
@@ -8578,7 +8578,7 @@
         <v>473</v>
       </c>
       <c r="O115" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P115" t="s">
         <v>474</v>
@@ -8601,7 +8601,7 @@
         <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>288</v>
       </c>
       <c r="G116" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="H116" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="I116" t="s">
         <v>420</v>
       </c>
       <c r="J116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K116" t="s">
         <v>420</v>
@@ -8631,7 +8631,7 @@
         <v>475</v>
       </c>
       <c r="M116" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="N116" t="s">
         <v>474</v>
@@ -8643,7 +8643,7 @@
         <v>473</v>
       </c>
       <c r="Q116" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="R116" t="s">
         <v>472</v>
@@ -8660,31 +8660,31 @@
         <v>289</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
         <v>289</v>
       </c>
       <c r="G117" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="H117" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="I117" t="s">
         <v>421</v>
       </c>
       <c r="J117" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K117" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="L117" t="s">
         <v>474</v>
@@ -8699,10 +8699,10 @@
         <v>289</v>
       </c>
       <c r="P117" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q117" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="R117" t="s">
         <v>472</v>
@@ -8778,37 +8778,37 @@
         <v>290</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="s">
         <v>290</v>
       </c>
       <c r="G119" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="H119" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="I119" t="s">
         <v>422</v>
       </c>
       <c r="J119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K119" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="L119" t="s">
         <v>472</v>
       </c>
       <c r="M119" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="N119" t="s">
         <v>474</v>
@@ -8823,7 +8823,7 @@
         <v>290</v>
       </c>
       <c r="R119" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S119">
         <v>1.242981205746274</v>
@@ -8837,7 +8837,7 @@
         <v>291</v>
       </c>
       <c r="C120" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -8849,16 +8849,16 @@
         <v>291</v>
       </c>
       <c r="G120" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="H120" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="I120" t="s">
         <v>423</v>
       </c>
       <c r="J120" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K120" t="s">
         <v>423</v>
@@ -8873,13 +8873,13 @@
         <v>476</v>
       </c>
       <c r="O120" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="P120" t="s">
         <v>474</v>
       </c>
       <c r="Q120" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="R120" t="s">
         <v>472</v>
@@ -8961,22 +8961,22 @@
         <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
         <v>292</v>
       </c>
       <c r="G122" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="H122" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="I122" t="s">
         <v>424</v>
       </c>
       <c r="J122" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K122" t="s">
         <v>424</v>
@@ -8985,7 +8985,7 @@
         <v>475</v>
       </c>
       <c r="M122" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="N122" t="s">
         <v>474</v>
@@ -8994,10 +8994,10 @@
         <v>292</v>
       </c>
       <c r="P122" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q122" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="R122" t="s">
         <v>472</v>
@@ -9073,7 +9073,7 @@
         <v>293</v>
       </c>
       <c r="C124" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -9085,16 +9085,16 @@
         <v>293</v>
       </c>
       <c r="G124" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="H124" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="I124" t="s">
         <v>425</v>
       </c>
       <c r="J124" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K124" t="s">
         <v>293</v>
@@ -9103,7 +9103,7 @@
         <v>473</v>
       </c>
       <c r="M124" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="N124" t="s">
         <v>474</v>
@@ -9115,7 +9115,7 @@
         <v>475</v>
       </c>
       <c r="Q124" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="R124" t="s">
         <v>472</v>
@@ -9250,7 +9250,7 @@
         <v>294</v>
       </c>
       <c r="C127" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -9262,16 +9262,16 @@
         <v>294</v>
       </c>
       <c r="G127" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H127" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I127" t="s">
         <v>426</v>
       </c>
       <c r="J127" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K127" t="s">
         <v>426</v>
@@ -9280,13 +9280,13 @@
         <v>475</v>
       </c>
       <c r="M127" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="N127" t="s">
         <v>474</v>
       </c>
       <c r="O127" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="P127" t="s">
         <v>472</v>
@@ -9309,7 +9309,7 @@
         <v>295</v>
       </c>
       <c r="C128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>295</v>
       </c>
       <c r="G128" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="H128" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I128" t="s">
         <v>427</v>
@@ -9345,13 +9345,13 @@
         <v>475</v>
       </c>
       <c r="O128" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="P128" t="s">
         <v>474</v>
       </c>
       <c r="Q128" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="R128" t="s">
         <v>472</v>
@@ -9368,37 +9368,37 @@
         <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
         <v>296</v>
       </c>
       <c r="G129" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H129" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="I129" t="s">
         <v>428</v>
       </c>
       <c r="J129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K129" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L129" t="s">
         <v>474</v>
       </c>
       <c r="M129" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="N129" t="s">
         <v>472</v>
@@ -9407,7 +9407,7 @@
         <v>296</v>
       </c>
       <c r="P129" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q129" t="s">
         <v>428</v>
@@ -9427,7 +9427,7 @@
         <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -9439,16 +9439,16 @@
         <v>297</v>
       </c>
       <c r="G130" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="H130" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I130" t="s">
         <v>429</v>
       </c>
       <c r="J130" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K130" t="s">
         <v>429</v>
@@ -9457,13 +9457,13 @@
         <v>475</v>
       </c>
       <c r="M130" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="N130" t="s">
         <v>472</v>
       </c>
       <c r="O130" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="P130" t="s">
         <v>474</v>
@@ -9545,7 +9545,7 @@
         <v>298</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -9557,16 +9557,16 @@
         <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="H132" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="I132" t="s">
         <v>430</v>
       </c>
       <c r="J132" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K132" t="s">
         <v>298</v>
@@ -9575,7 +9575,7 @@
         <v>473</v>
       </c>
       <c r="M132" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="N132" t="s">
         <v>474</v>
@@ -9587,7 +9587,7 @@
         <v>475</v>
       </c>
       <c r="Q132" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="R132" t="s">
         <v>472</v>
@@ -9616,10 +9616,10 @@
         <v>299</v>
       </c>
       <c r="G133" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="H133" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="I133" t="s">
         <v>431</v>
@@ -9628,13 +9628,13 @@
         <v>343</v>
       </c>
       <c r="K133" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="L133" t="s">
         <v>472</v>
       </c>
       <c r="M133" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="N133" t="s">
         <v>474</v>
@@ -9663,7 +9663,7 @@
         <v>300</v>
       </c>
       <c r="C134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -9675,10 +9675,10 @@
         <v>300</v>
       </c>
       <c r="G134" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="H134" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I134" t="s">
         <v>432</v>
@@ -9693,13 +9693,13 @@
         <v>473</v>
       </c>
       <c r="M134" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N134" t="s">
         <v>472</v>
       </c>
       <c r="O134" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="P134" t="s">
         <v>474</v>
@@ -9722,7 +9722,7 @@
         <v>301</v>
       </c>
       <c r="C135" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -9734,19 +9734,19 @@
         <v>301</v>
       </c>
       <c r="G135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H135" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="I135" t="s">
         <v>433</v>
       </c>
       <c r="J135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K135" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L135" t="s">
         <v>472</v>
@@ -9758,7 +9758,7 @@
         <v>473</v>
       </c>
       <c r="O135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P135" t="s">
         <v>474</v>
@@ -9840,28 +9840,28 @@
         <v>302</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
         <v>302</v>
       </c>
       <c r="G137" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="H137" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="I137" t="s">
         <v>434</v>
       </c>
       <c r="J137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K137" t="s">
         <v>434</v>
@@ -9873,16 +9873,16 @@
         <v>302</v>
       </c>
       <c r="N137" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O137" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="P137" t="s">
         <v>474</v>
       </c>
       <c r="Q137" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="R137" t="s">
         <v>472</v>
@@ -9958,22 +9958,22 @@
         <v>303</v>
       </c>
       <c r="C139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
         <v>303</v>
       </c>
       <c r="G139" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H139" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="I139" t="s">
         <v>435</v>
@@ -9985,16 +9985,16 @@
         <v>303</v>
       </c>
       <c r="L139" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M139" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N139" t="s">
         <v>474</v>
       </c>
       <c r="O139" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P139" t="s">
         <v>472</v>
@@ -10017,7 +10017,7 @@
         <v>304</v>
       </c>
       <c r="C140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -10029,25 +10029,25 @@
         <v>304</v>
       </c>
       <c r="G140" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="H140" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="I140" t="s">
         <v>436</v>
       </c>
       <c r="J140" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K140" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="L140" t="s">
         <v>472</v>
       </c>
       <c r="M140" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="N140" t="s">
         <v>474</v>
@@ -10076,7 +10076,7 @@
         <v>305</v>
       </c>
       <c r="C141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -10088,19 +10088,19 @@
         <v>305</v>
       </c>
       <c r="G141" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H141" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="I141" t="s">
         <v>437</v>
       </c>
       <c r="J141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K141" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L141" t="s">
         <v>474</v>
@@ -10118,7 +10118,7 @@
         <v>473</v>
       </c>
       <c r="Q141" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="R141" t="s">
         <v>472</v>
@@ -10135,7 +10135,7 @@
         <v>306</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -10147,19 +10147,19 @@
         <v>306</v>
       </c>
       <c r="G142" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="H142" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="I142" t="s">
         <v>438</v>
       </c>
       <c r="J142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K142" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="L142" t="s">
         <v>474</v>
@@ -10177,7 +10177,7 @@
         <v>475</v>
       </c>
       <c r="Q142" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="R142" t="s">
         <v>472</v>
@@ -10253,22 +10253,22 @@
         <v>307</v>
       </c>
       <c r="C144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
         <v>307</v>
       </c>
       <c r="G144" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H144" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="I144" t="s">
         <v>439</v>
@@ -10280,7 +10280,7 @@
         <v>307</v>
       </c>
       <c r="L144" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M144" t="s">
         <v>439</v>
@@ -10289,13 +10289,13 @@
         <v>475</v>
       </c>
       <c r="O144" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="P144" t="s">
         <v>472</v>
       </c>
       <c r="Q144" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="R144" t="s">
         <v>474</v>
@@ -10371,22 +10371,22 @@
         <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
         <v>308</v>
       </c>
       <c r="G146" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="H146" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="I146" t="s">
         <v>440</v>
@@ -10404,16 +10404,16 @@
         <v>308</v>
       </c>
       <c r="N146" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O146" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="P146" t="s">
         <v>474</v>
       </c>
       <c r="Q146" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="R146" t="s">
         <v>472</v>
@@ -10442,10 +10442,10 @@
         <v>309</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="H147" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I147" t="s">
         <v>441</v>
@@ -10454,7 +10454,7 @@
         <v>342</v>
       </c>
       <c r="K147" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L147" t="s">
         <v>472</v>
@@ -10466,7 +10466,7 @@
         <v>473</v>
       </c>
       <c r="O147" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="P147" t="s">
         <v>474</v>
@@ -10489,7 +10489,7 @@
         <v>310</v>
       </c>
       <c r="C148" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -10501,10 +10501,10 @@
         <v>310</v>
       </c>
       <c r="G148" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H148" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="I148" t="s">
         <v>442</v>
@@ -10513,13 +10513,13 @@
         <v>341</v>
       </c>
       <c r="K148" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="L148" t="s">
         <v>472</v>
       </c>
       <c r="M148" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N148" t="s">
         <v>474</v>
@@ -10548,7 +10548,7 @@
         <v>311</v>
       </c>
       <c r="C149" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -10560,16 +10560,16 @@
         <v>311</v>
       </c>
       <c r="G149" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="H149" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="I149" t="s">
         <v>443</v>
       </c>
       <c r="J149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K149" t="s">
         <v>443</v>
@@ -10578,7 +10578,7 @@
         <v>475</v>
       </c>
       <c r="M149" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="N149" t="s">
         <v>472</v>
@@ -10590,7 +10590,7 @@
         <v>473</v>
       </c>
       <c r="Q149" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="R149" t="s">
         <v>474</v>
@@ -10613,25 +10613,25 @@
         <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="s">
         <v>312</v>
       </c>
       <c r="G150" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="H150" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="I150" t="s">
         <v>444</v>
       </c>
       <c r="J150" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K150" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="L150" t="s">
         <v>472</v>
@@ -10640,10 +10640,10 @@
         <v>312</v>
       </c>
       <c r="N150" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O150" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="P150" t="s">
         <v>474</v>
@@ -10666,7 +10666,7 @@
         <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -10678,10 +10678,10 @@
         <v>313</v>
       </c>
       <c r="G151" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H151" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="I151" t="s">
         <v>445</v>
@@ -10696,7 +10696,7 @@
         <v>475</v>
       </c>
       <c r="M151" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N151" t="s">
         <v>474</v>
@@ -10708,7 +10708,7 @@
         <v>473</v>
       </c>
       <c r="Q151" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="R151" t="s">
         <v>472</v>
@@ -10843,28 +10843,28 @@
         <v>314</v>
       </c>
       <c r="C154" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="s">
         <v>314</v>
       </c>
       <c r="G154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H154" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I154" t="s">
         <v>446</v>
       </c>
       <c r="J154" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K154" t="s">
         <v>446</v>
@@ -10873,13 +10873,13 @@
         <v>475</v>
       </c>
       <c r="M154" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N154" t="s">
         <v>472</v>
       </c>
       <c r="O154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P154" t="s">
         <v>474</v>
@@ -10888,7 +10888,7 @@
         <v>314</v>
       </c>
       <c r="R154" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S154">
         <v>1.021480174690118</v>
@@ -10914,10 +10914,10 @@
         <v>315</v>
       </c>
       <c r="G155" t="s">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="H155" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I155" t="s">
         <v>447</v>
@@ -10932,13 +10932,13 @@
         <v>475</v>
       </c>
       <c r="M155" t="s">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="N155" t="s">
         <v>474</v>
       </c>
       <c r="O155" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P155" t="s">
         <v>472</v>
@@ -10961,7 +10961,7 @@
         <v>316</v>
       </c>
       <c r="C156" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -10973,10 +10973,10 @@
         <v>316</v>
       </c>
       <c r="G156" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H156" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="I156" t="s">
         <v>448</v>
@@ -10991,13 +10991,13 @@
         <v>473</v>
       </c>
       <c r="M156" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="N156" t="s">
         <v>474</v>
       </c>
       <c r="O156" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="P156" t="s">
         <v>472</v>
@@ -11020,28 +11020,28 @@
         <v>317</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
         <v>317</v>
       </c>
       <c r="G157" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H157" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="I157" t="s">
         <v>449</v>
       </c>
       <c r="J157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K157" t="s">
         <v>449</v>
@@ -11053,16 +11053,16 @@
         <v>317</v>
       </c>
       <c r="N157" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O157" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="P157" t="s">
         <v>474</v>
       </c>
       <c r="Q157" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="R157" t="s">
         <v>472</v>
@@ -11256,31 +11256,31 @@
         <v>318</v>
       </c>
       <c r="C161" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="s">
         <v>318</v>
       </c>
       <c r="G161" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="H161" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="I161" t="s">
         <v>450</v>
       </c>
       <c r="J161" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K161" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="L161" t="s">
         <v>474</v>
@@ -11292,7 +11292,7 @@
         <v>475</v>
       </c>
       <c r="O161" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="P161" t="s">
         <v>472</v>
@@ -11301,7 +11301,7 @@
         <v>318</v>
       </c>
       <c r="R161" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S161">
         <v>1.120034994935223</v>
@@ -11315,22 +11315,22 @@
         <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="s">
         <v>319</v>
       </c>
       <c r="G162" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="H162" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="I162" t="s">
         <v>451</v>
@@ -11339,13 +11339,13 @@
         <v>342</v>
       </c>
       <c r="K162" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="L162" t="s">
         <v>474</v>
       </c>
       <c r="M162" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="N162" t="s">
         <v>472</v>
@@ -11354,7 +11354,7 @@
         <v>319</v>
       </c>
       <c r="P162" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q162" t="s">
         <v>451</v>
@@ -11374,22 +11374,22 @@
         <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
         <v>320</v>
       </c>
       <c r="G163" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="H163" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="I163" t="s">
         <v>452</v>
@@ -11401,10 +11401,10 @@
         <v>320</v>
       </c>
       <c r="L163" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M163" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="N163" t="s">
         <v>474</v>
@@ -11416,7 +11416,7 @@
         <v>475</v>
       </c>
       <c r="Q163" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="R163" t="s">
         <v>472</v>
@@ -11433,7 +11433,7 @@
         <v>321</v>
       </c>
       <c r="C164" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -11445,10 +11445,10 @@
         <v>321</v>
       </c>
       <c r="G164" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H164" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="I164" t="s">
         <v>453</v>
@@ -11463,7 +11463,7 @@
         <v>473</v>
       </c>
       <c r="M164" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="N164" t="s">
         <v>472</v>
@@ -11475,7 +11475,7 @@
         <v>475</v>
       </c>
       <c r="Q164" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R164" t="s">
         <v>474</v>
@@ -11563,16 +11563,16 @@
         <v>322</v>
       </c>
       <c r="G166" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H166" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I166" t="s">
         <v>454</v>
       </c>
       <c r="J166" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K166" t="s">
         <v>322</v>
@@ -11587,13 +11587,13 @@
         <v>475</v>
       </c>
       <c r="O166" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P166" t="s">
         <v>472</v>
       </c>
       <c r="Q166" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="R166" t="s">
         <v>474</v>
@@ -11622,7 +11622,7 @@
         <v>323</v>
       </c>
       <c r="G167" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H167" t="s">
         <v>257</v>
@@ -11631,7 +11631,7 @@
         <v>455</v>
       </c>
       <c r="J167" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K167" t="s">
         <v>257</v>
@@ -11640,7 +11640,7 @@
         <v>472</v>
       </c>
       <c r="M167" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="N167" t="s">
         <v>474</v>
@@ -11669,7 +11669,7 @@
         <v>324</v>
       </c>
       <c r="C168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -11681,16 +11681,16 @@
         <v>324</v>
       </c>
       <c r="G168" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="H168" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="I168" t="s">
         <v>456</v>
       </c>
       <c r="J168" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K168" t="s">
         <v>456</v>
@@ -11699,13 +11699,13 @@
         <v>475</v>
       </c>
       <c r="M168" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="N168" t="s">
         <v>474</v>
       </c>
       <c r="O168" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="P168" t="s">
         <v>472</v>
@@ -11905,22 +11905,22 @@
         <v>325</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="s">
         <v>325</v>
       </c>
       <c r="G172" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H172" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I172" t="s">
         <v>457</v>
@@ -11929,13 +11929,13 @@
         <v>343</v>
       </c>
       <c r="K172" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L172" t="s">
         <v>472</v>
       </c>
       <c r="M172" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="N172" t="s">
         <v>474</v>
@@ -11950,7 +11950,7 @@
         <v>325</v>
       </c>
       <c r="R172" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S172">
         <v>1.001491913941878</v>
@@ -11976,25 +11976,25 @@
         <v>326</v>
       </c>
       <c r="G173" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H173" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I173" t="s">
         <v>458</v>
       </c>
       <c r="J173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K173" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L173" t="s">
         <v>472</v>
       </c>
       <c r="M173" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N173" t="s">
         <v>474</v>
@@ -12023,7 +12023,7 @@
         <v>327</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>327</v>
       </c>
       <c r="G174" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="H174" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="I174" t="s">
         <v>459</v>
       </c>
       <c r="J174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K174" t="s">
         <v>459</v>
@@ -12059,13 +12059,13 @@
         <v>476</v>
       </c>
       <c r="O174" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="P174" t="s">
         <v>474</v>
       </c>
       <c r="Q174" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="R174" t="s">
         <v>472</v>
@@ -12082,7 +12082,7 @@
         <v>328</v>
       </c>
       <c r="C175" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -12094,16 +12094,16 @@
         <v>328</v>
       </c>
       <c r="G175" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="H175" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="I175" t="s">
         <v>460</v>
       </c>
       <c r="J175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K175" t="s">
         <v>328</v>
@@ -12118,13 +12118,13 @@
         <v>475</v>
       </c>
       <c r="O175" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="P175" t="s">
         <v>474</v>
       </c>
       <c r="Q175" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="R175" t="s">
         <v>472</v>
@@ -12141,31 +12141,31 @@
         <v>329</v>
       </c>
       <c r="C176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
         <v>329</v>
       </c>
       <c r="G176" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="H176" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="I176" t="s">
         <v>461</v>
       </c>
       <c r="J176" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K176" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L176" t="s">
         <v>474</v>
@@ -12174,7 +12174,7 @@
         <v>329</v>
       </c>
       <c r="N176" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O176" t="s">
         <v>461</v>
@@ -12183,7 +12183,7 @@
         <v>475</v>
       </c>
       <c r="Q176" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="R176" t="s">
         <v>472</v>
@@ -12259,7 +12259,7 @@
         <v>330</v>
       </c>
       <c r="C178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -12271,19 +12271,19 @@
         <v>330</v>
       </c>
       <c r="G178" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="H178" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="I178" t="s">
         <v>462</v>
       </c>
       <c r="J178" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K178" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="L178" t="s">
         <v>472</v>
@@ -12301,7 +12301,7 @@
         <v>473</v>
       </c>
       <c r="Q178" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="R178" t="s">
         <v>474</v>
@@ -12318,7 +12318,7 @@
         <v>331</v>
       </c>
       <c r="C179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
@@ -12330,16 +12330,16 @@
         <v>331</v>
       </c>
       <c r="G179" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="H179" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="I179" t="s">
         <v>463</v>
       </c>
       <c r="J179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K179" t="s">
         <v>331</v>
@@ -12348,7 +12348,7 @@
         <v>473</v>
       </c>
       <c r="M179" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="N179" t="s">
         <v>472</v>
@@ -12360,7 +12360,7 @@
         <v>475</v>
       </c>
       <c r="Q179" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="R179" t="s">
         <v>474</v>
@@ -12436,7 +12436,7 @@
         <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -12448,19 +12448,19 @@
         <v>332</v>
       </c>
       <c r="G181" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="H181" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="I181" t="s">
         <v>464</v>
       </c>
       <c r="J181" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K181" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="L181" t="s">
         <v>474</v>
@@ -12478,7 +12478,7 @@
         <v>473</v>
       </c>
       <c r="Q181" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="R181" t="s">
         <v>472</v>
@@ -12507,10 +12507,10 @@
         <v>333</v>
       </c>
       <c r="G182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H182" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="I182" t="s">
         <v>465</v>
@@ -12525,7 +12525,7 @@
         <v>473</v>
       </c>
       <c r="M182" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N182" t="s">
         <v>474</v>
@@ -12537,7 +12537,7 @@
         <v>475</v>
       </c>
       <c r="Q182" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="R182" t="s">
         <v>472</v>
@@ -12613,7 +12613,7 @@
         <v>334</v>
       </c>
       <c r="C184" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -12625,19 +12625,19 @@
         <v>334</v>
       </c>
       <c r="G184" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H184" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="I184" t="s">
         <v>466</v>
       </c>
       <c r="J184" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K184" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="L184" t="s">
         <v>472</v>
@@ -12649,7 +12649,7 @@
         <v>473</v>
       </c>
       <c r="O184" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="P184" t="s">
         <v>474</v>
@@ -12672,37 +12672,37 @@
         <v>335</v>
       </c>
       <c r="C185" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
         <v>335</v>
       </c>
       <c r="G185" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="H185" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="I185" t="s">
         <v>467</v>
       </c>
       <c r="J185" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K185" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="L185" t="s">
         <v>474</v>
       </c>
       <c r="M185" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="N185" t="s">
         <v>472</v>
@@ -12717,7 +12717,7 @@
         <v>335</v>
       </c>
       <c r="R185" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S185">
         <v>1.153091529455967</v>
@@ -12790,28 +12790,28 @@
         <v>336</v>
       </c>
       <c r="C187" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
         <v>336</v>
       </c>
       <c r="G187" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H187" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="I187" t="s">
         <v>468</v>
       </c>
       <c r="J187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K187" t="s">
         <v>468</v>
@@ -12823,16 +12823,16 @@
         <v>336</v>
       </c>
       <c r="N187" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O187" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="P187" t="s">
         <v>472</v>
       </c>
       <c r="Q187" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="R187" t="s">
         <v>474</v>
@@ -12908,37 +12908,37 @@
         <v>337</v>
       </c>
       <c r="C189" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="s">
         <v>337</v>
       </c>
       <c r="G189" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H189" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="I189" t="s">
         <v>469</v>
       </c>
       <c r="J189" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K189" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="L189" t="s">
         <v>474</v>
       </c>
       <c r="M189" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="N189" t="s">
         <v>472</v>
@@ -12953,7 +12953,7 @@
         <v>337</v>
       </c>
       <c r="R189" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="S189">
         <v>1.131646513172956</v>
@@ -13026,7 +13026,7 @@
         <v>338</v>
       </c>
       <c r="C191" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -13038,16 +13038,16 @@
         <v>338</v>
       </c>
       <c r="G191" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H191" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="I191" t="s">
         <v>470</v>
       </c>
       <c r="J191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K191" t="s">
         <v>338</v>
@@ -13056,7 +13056,7 @@
         <v>473</v>
       </c>
       <c r="M191" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="N191" t="s">
         <v>474</v>
@@ -13068,7 +13068,7 @@
         <v>475</v>
       </c>
       <c r="Q191" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="R191" t="s">
         <v>472</v>
@@ -13144,7 +13144,7 @@
         <v>339</v>
       </c>
       <c r="C193" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -13156,19 +13156,19 @@
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H193" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K193" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="L193" t="s">
         <v>474</v>
@@ -13186,7 +13186,7 @@
         <v>473</v>
       </c>
       <c r="Q193" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="R193" t="s">
         <v>472</v>
